--- a/crmTestdata.xlsx
+++ b/crmTestdata.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7110" activeTab="1"/>
+    <workbookView windowWidth="16950" windowHeight="5120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="4" r:id="rId1"/>
     <sheet name="Contacts" sheetId="5" r:id="rId2"/>
+    <sheet name="Company" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>F_Name</t>
   </si>
@@ -38,10 +39,61 @@
     <t>Reddy</t>
   </si>
   <si>
-    <t>Pramati</t>
+    <t>abc</t>
   </si>
   <si>
     <t>Prem</t>
+  </si>
+  <si>
+    <t>Arif</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>C_Name</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>PhoneCode</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Pramati Technologies</t>
+  </si>
+  <si>
+    <t>https://www.pramati.com/</t>
+  </si>
+  <si>
+    <t>Road No. 1, Banjara Hills</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -49,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,16 +115,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,47 +139,77 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,19 +229,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,29 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,13 +274,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,55 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,103 +436,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,6 +459,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -427,8 +497,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -449,26 +521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -480,15 +532,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,10 +550,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,144 +577,142 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,13 +1048,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1039,6 +1095,20 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1046,4 +1116,82 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="26.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="8.72727272727273" customWidth="1"/>
+    <col min="8" max="8" width="11.7272727272727"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="58" spans="1:8">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>500034</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4033552000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.pramati.com/" tooltip="https://www.pramati.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>